--- a/data/Fall2018/db1-7_all-timepoints-runs/db3/17-genes_32-edges_db3_Sigmoid_estimation_all-timepoints.xlsx
+++ b/data/Fall2018/db1-7_all-timepoints-runs/db3/17-genes_32-edges_db3_Sigmoid_estimation_all-timepoints.xlsx
@@ -466,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -474,6 +474,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1966,7 +1967,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1978,7 +1979,7 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -2018,7 +2019,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2095,8 +2096,14 @@
       <c r="D14" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E14" s="2">
+        <v>90</v>
+      </c>
+      <c r="F14" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -2119,7 +2126,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2161,6 +2168,42 @@
       </c>
       <c r="N16" s="2">
         <v>60</v>
+      </c>
+      <c r="O16" s="2">
+        <v>65</v>
+      </c>
+      <c r="P16" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>75</v>
+      </c>
+      <c r="R16" s="2">
+        <v>80</v>
+      </c>
+      <c r="S16" s="2">
+        <v>85</v>
+      </c>
+      <c r="T16" s="2">
+        <v>90</v>
+      </c>
+      <c r="U16" s="2">
+        <v>95</v>
+      </c>
+      <c r="V16" s="2">
+        <v>100</v>
+      </c>
+      <c r="W16" s="2">
+        <v>105</v>
+      </c>
+      <c r="X16" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>115</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2639,7 @@
       <c r="F2" s="5">
         <v>0.5827</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="5">
         <v>-0.3947</v>
       </c>
@@ -2621,7 +2664,7 @@
       <c r="O2" s="5">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="P2" s="5"/>
+      <c r="P2" s="7"/>
       <c r="Q2" s="5">
         <v>0.26819999999999999</v>
       </c>
@@ -3679,7 +3722,7 @@
       <c r="W16" s="5">
         <v>0.65090000000000003</v>
       </c>
-      <c r="X16" s="5"/>
+      <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -3795,7 +3838,7 @@
       <c r="M18" s="5">
         <v>1.3863000000000001</v>
       </c>
-      <c r="N18" s="5"/>
+      <c r="N18" s="7"/>
       <c r="O18" s="5">
         <v>0.45350000000000001</v>
       </c>
@@ -3837,7 +3880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T18" activeCellId="8" sqref="C3 B10 C14 I2 J3 P9 S3 T8 T18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3936,7 +3981,7 @@
       <c r="H2" s="5">
         <v>-0.42530000000000001</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="5">
         <v>0.56820000000000004</v>
       </c>
@@ -3981,7 +4026,7 @@
       <c r="B3" s="5">
         <v>-0.66849999999999998</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="5">
         <v>-0.43219999999999997</v>
       </c>
@@ -4000,7 +4045,7 @@
       <c r="I3" s="5">
         <v>0.59750000000000003</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="5">
         <v>-0.3216</v>
       </c>
@@ -4025,7 +4070,7 @@
       <c r="R3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="5"/>
+      <c r="S3" s="7"/>
       <c r="T3" s="5">
         <v>2.1099000000000001</v>
       </c>
@@ -4351,7 +4396,7 @@
       <c r="S8" s="5">
         <v>0.4713</v>
       </c>
-      <c r="T8" s="5"/>
+      <c r="T8" s="7"/>
       <c r="U8" s="5">
         <v>1.2195</v>
       </c>
@@ -4402,7 +4447,7 @@
       <c r="O9" s="5">
         <v>0.65690000000000004</v>
       </c>
-      <c r="P9" s="5"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="5">
         <v>-0.36409999999999998</v>
       </c>
@@ -4423,7 +4468,7 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="5" t="s">
         <v>85</v>
       </c>
@@ -4684,7 +4729,7 @@
       <c r="B14" s="5">
         <v>-0.4763</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="5">
         <v>-0.33360000000000001</v>
       </c>
@@ -4993,7 +5038,7 @@
       <c r="S18" s="5">
         <v>0.1502</v>
       </c>
-      <c r="T18" s="5"/>
+      <c r="T18" s="7"/>
       <c r="U18" s="5">
         <v>-4.1300000000000003E-2</v>
       </c>
@@ -5227,7 +5272,7 @@
       <c r="E4" s="5">
         <v>-6.1600000000000002E-2</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="5">
         <v>-0.19980000000000001</v>
       </c>
@@ -5473,14 +5518,14 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="5">
         <v>6.0278999999999998</v>
       </c>
       <c r="D8" s="5">
         <v>-0.84640000000000004</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="5">
         <v>0.94030000000000002</v>
       </c>
@@ -5490,29 +5535,29 @@
       <c r="H8" s="5">
         <v>1.6552</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="5">
         <v>2.3471000000000002</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="5">
         <v>-1.4205000000000001</v>
       </c>
       <c r="N8" s="5">
         <v>-0.37619999999999998</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="7"/>
       <c r="P8" s="5">
         <v>-0.82179999999999997</v>
       </c>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="7"/>
       <c r="R8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -5619,7 +5664,7 @@
       <c r="M10" s="5">
         <v>-0.28699999999999998</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="5">
         <v>0.4501</v>
       </c>
@@ -5785,7 +5830,7 @@
       <c r="D13" s="5">
         <v>0.22919999999999999</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="5">
         <v>1.1875</v>
       </c>
@@ -5928,7 +5973,7 @@
       <c r="I15" s="5">
         <v>-0.4289</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="5">
         <v>-0.99909999999999999</v>
       </c>
@@ -6032,7 +6077,7 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="5">
         <v>0.56440000000000001</v>
       </c>
@@ -6101,7 +6146,7 @@
       <c r="C18" s="5">
         <v>-0.22620000000000001</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="5">
         <v>0.40500000000000003</v>
       </c>
@@ -6111,7 +6156,7 @@
       <c r="G18" s="5">
         <v>1.7576000000000001</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="5">
         <v>1.3798999999999999</v>
       </c>
@@ -6124,11 +6169,11 @@
       <c r="L18" s="5">
         <v>-1.0851999999999999</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="7"/>
       <c r="N18" s="5">
         <v>-0.86339999999999995</v>
       </c>
-      <c r="O18" s="5"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="5">
         <v>0.2954</v>
       </c>
@@ -6887,7 +6932,7 @@
       <c r="D13" s="5">
         <v>0.32219999999999999</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="5">
         <v>0.40579999999999999</v>
       </c>
@@ -6897,8 +6942,8 @@
       <c r="H13" s="5">
         <v>0.4143</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="5">
         <v>-0.1119</v>
       </c>
@@ -6908,9 +6953,9 @@
       <c r="M13" s="5">
         <v>0.16170000000000001</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="5">
         <v>-0.22140000000000001</v>
       </c>
@@ -6946,7 +6991,7 @@
       <c r="H14" s="5">
         <v>-0.1171</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="5">
         <v>0.3775</v>
       </c>
@@ -6982,7 +7027,7 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="5">
         <v>0.14910000000000001</v>
       </c>
@@ -7160,7 +7205,7 @@
       <c r="B18" s="5">
         <v>-1.903</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="5">
         <v>1.5545</v>
       </c>
@@ -7191,7 +7236,7 @@
       <c r="M18" s="5">
         <v>-0.5958</v>
       </c>
-      <c r="N18" s="5"/>
+      <c r="N18" s="7"/>
       <c r="O18" s="5">
         <v>-1.0683</v>
       </c>
@@ -8016,8 +8061,8 @@
       <c r="C13" s="5">
         <v>0.55740000000000001</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="5">
         <v>0.29699999999999999</v>
       </c>
@@ -8027,29 +8072,29 @@
       <c r="H13" s="5">
         <v>0.15820000000000001</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="5">
         <v>1.7097</v>
       </c>
       <c r="K13" s="5">
         <v>0.61980000000000002</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="5">
         <v>-1.1805000000000001</v>
       </c>
       <c r="O13" s="5">
         <v>-0.22239999999999999</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
       <c r="S13" s="5">
         <v>-0.20169999999999999</v>
       </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -8528,7 +8573,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="5">
         <v>2.4161999999999999</v>
       </c>
@@ -8896,15 +8941,15 @@
       <c r="P8" s="5">
         <v>0.15559999999999999</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
       <c r="S8" s="5">
         <v>1.1749000000000001</v>
       </c>
       <c r="T8" s="5">
         <v>0.75049999999999994</v>
       </c>
-      <c r="U8" s="5"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -9495,7 +9540,7 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="5">
         <v>0.12870000000000001</v>
       </c>
@@ -9517,7 +9562,7 @@
       <c r="I18" s="5">
         <v>-0.23730000000000001</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="5">
         <v>0.69140000000000001</v>
       </c>
@@ -9539,7 +9584,7 @@
       <c r="Q18" s="5">
         <v>0.25569999999999998</v>
       </c>
-      <c r="R18" s="5"/>
+      <c r="R18" s="7"/>
       <c r="S18" s="5">
         <v>0.40379999999999999</v>
       </c>
